--- a/biology/Zoologie/Brontomerus/Brontomerus.xlsx
+++ b/biology/Zoologie/Brontomerus/Brontomerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brontomerus mcintoshi
-Brontomerus est un genre de dinosaures sauropodes qui vivaient au début du Crétacé. Il n'est représenté que par l'espèce Brontomerus mcintoshi décrite à partir de restes fossiles découverts dans la formation de Cedar Mountain, dans l'Utah[1].
+Brontomerus est un genre de dinosaures sauropodes qui vivaient au début du Crétacé. Il n'est représenté que par l'espèce Brontomerus mcintoshi décrite à partir de restes fossiles découverts dans la formation de Cedar Mountain, dans l'Utah.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Brontomerus, qui dérive du grec ancien βροντή, brontê, « tonnerre », et μήρος, méros, « cuisse », fait référence à sa musculature fémorale[1].
-Son épithète spécifique, mcintoshi, lui a été donnée en l'honneur de John S. McIntosh (d) (1923-2015), physicien et paléontologue américain, et ce en reconnaissance de ce vétéran qui, la plupart du temps sans financement et à son propre rythme, a été une inspiration pour tous ceux qui l'ont suivi dans l'étude des sauropodes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Brontomerus, qui dérive du grec ancien βροντή, brontê, « tonnerre », et μήρος, méros, « cuisse », fait référence à sa musculature fémorale.
+Son épithète spécifique, mcintoshi, lui a été donnée en l'honneur de John S. McIntosh (d) (1923-2015), physicien et paléontologue américain, et ce en reconnaissance de ce vétéran qui, la plupart du temps sans financement et à son propre rythme, a été une inspiration pour tous ceux qui l'ont suivi dans l'étude des sauropodes.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Michael P. Taylor, Mathew J. Wedel et Richard L. Cifelli, « A New Sauropod Dinosaur from the Lower Cretaceous Cedar Mountain Formation, Utah, USA », Acta Palaeontologica Polonica, PAN et Institute of Paleobiology (d), vol. 56, no 1,‎ mars 2011, p. 75-98 (ISSN 0567-7920 et 1732-2421, OCLC 02051833, DOI 10.4202/APP.2010.0073, lire en ligne)</t>
         </is>
